--- a/exps/compare_models.xlsx
+++ b/exps/compare_models.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EEGuizhi\Project\code\exps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EEGuizhi\Project\exps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B626D0-D86A-49C0-B7BC-AFF00AB03812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C51FD6-4606-4015-81C0-18BEC5A8528A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t> number of preditions</a:t>
+              <a:t> number of predictions</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="800">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3395,7 +3395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z15" zoomScale="219" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
